--- a/public/assets/template/template_bulk_product.xlsx
+++ b/public/assets/template/template_bulk_product.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19477" windowHeight="8287"/>
+    <workbookView windowWidth="28800" windowHeight="12405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Produk SKU</t>
-  </si>
-  <si>
-    <t>SKU Code</t>
   </si>
   <si>
     <t>Kategori Produk</t>
@@ -39,10 +36,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -68,8 +65,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,92 +94,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,6 +117,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -189,9 +194,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,15 +209,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,13 +231,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -252,49 +381,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -306,115 +399,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -428,56 +425,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +460,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -511,165 +499,174 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -946,19 +943,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="35.1015625" customWidth="1"/>
-    <col min="2" max="3" width="17.1328125" customWidth="1"/>
+    <col min="1" max="1" width="35.1" customWidth="1"/>
+    <col min="2" max="2" width="17.1333333333333" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
+    <row r="1" customHeight="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -968,19 +965,15 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="4">
+      <c r="C2" s="4">
         <v>219300</v>
       </c>
     </row>
